--- a/measurements/speedup.xlsx
+++ b/measurements/speedup.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kehongliu/Downloads/team38/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB1C12-FC4D-BB43-9570-0D7481F76B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E9F98E-5BE8-CE4D-A38F-E7474D35DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" xr2:uid="{C5CBD7F7-3663-B146-B862-6D8229B10EA9}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" activeTab="1" xr2:uid="{C5CBD7F7-3663-B146-B862-6D8229B10EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="plotting" sheetId="1" r:id="rId1"/>
+    <sheet name="plotting_report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>n</t>
   </si>
@@ -93,6 +94,30 @@
   </si>
   <si>
     <t>avx_optimized_6_cycles</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Optimization 4</t>
+  </si>
+  <si>
+    <t>Optimization 3</t>
+  </si>
+  <si>
+    <t>Optimization 2</t>
+  </si>
+  <si>
+    <t>Optimization 1</t>
+  </si>
+  <si>
+    <t>op1_cycles</t>
+  </si>
+  <si>
+    <t>op2_cycles</t>
+  </si>
+  <si>
+    <t>op3_cycles</t>
   </si>
 </sst>
 </file>
@@ -649,7 +674,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -694,7 +719,1046 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740241984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> up on i7-12700H</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39679173374703625"/>
+          <c:y val="4.2000000000000003E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13472856599244798"/>
+          <c:y val="0.39817007874015747"/>
+          <c:w val="0.80281790240903905"/>
+          <c:h val="0.47129937007874018"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plotting_report!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>plotting_report!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plotting_report!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0454-8349-AD37-FDAA13420A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plotting_report!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimization 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>plotting_report!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plotting_report!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.54704474062465125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48730617095420437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44892973021271371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36792999502473001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29586766467065867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27971914893617023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26700680272108845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2638655462184874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2615062761506276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26230366492146595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.264026402640264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0454-8349-AD37-FDAA13420A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plotting_report!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimization 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>plotting_report!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plotting_report!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9667195903388861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54821255317561013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48302171812785161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38691796657789224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30824071856287427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28874751773049645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27548469387755103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26941932773109245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26955230125523011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26854712041884815</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26938157894736842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27102244224422445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0454-8349-AD37-FDAA13420A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plotting_report!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimization 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>plotting_report!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plotting_report!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0094624792424549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0057237336885072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0090287434312295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94298047938189589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92814371257485029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96453900709219853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97959183673469385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98319327731092432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99163179916317989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98952879581151831</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0026315789473683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0454-8349-AD37-FDAA13420A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plotting_report!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimization 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>plotting_report!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2^14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plotting_report!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.51714704200712081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6866356272282087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75703786850731847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68996751441364979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6347305389221557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66241134751773045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65986394557823125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65966386554621848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66317991631799167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65968586387434558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68684210526315792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67656765676567654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0454-8349-AD37-FDAA13420A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="740241984"/>
+        <c:axId val="740243712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="740241984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (n_p)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740243712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="740243712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normlized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Execution Time (cycles)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.9479553903345724E-3"/>
+              <c:y val="0.31861464566929132"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -873,7 +1937,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1431,6 +3051,191 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02528</cdr:x>
+      <cdr:y>0.112</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54989</cdr:x>
+      <cdr:y>0.24722</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C1EE0E-90B9-D772-1CA6-5D84CDA3E67D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="215900" y="711200"/>
+          <a:ext cx="4480606" cy="858641"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Intel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> i7-12700H @ 2.3GHz</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>L1: 80KB, L2: 1280KB, L3: 24MB</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Compiler: ICPC 2021.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Flags: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA"/>
+            <a:t>-O3 -ffast-math -march=native -mavx2 -ftree-vectorize -m64</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644FBC82-77D0-324F-B31C-91E9A2C51191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -1871,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDB1C21-6522-484A-841F-533F5F4707CD}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -1931,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">C3/B3</f>
+        <f t="shared" ref="E3:E14" si="0">C3/B3</f>
         <v>0.54704474062465125</v>
       </c>
     </row>
@@ -2139,6 +3944,581 @@
       </c>
       <c r="C15" s="1">
         <v>32000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DDD06B-BAAB-7741-B4AD-CCEE4C5BA766}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1115.54</v>
+      </c>
+      <c r="C2">
+        <v>792.14</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>C2/B2</f>
+        <v>0.71009555910142175</v>
+      </c>
+      <c r="F2">
+        <f>K2/B2</f>
+        <v>0.98086128691037533</v>
+      </c>
+      <c r="G2">
+        <f>J2/B2</f>
+        <v>1.033185721713251</v>
+      </c>
+      <c r="H2">
+        <f>I2/B2</f>
+        <v>0.22781343564551698</v>
+      </c>
+      <c r="I2">
+        <v>254.13499999999999</v>
+      </c>
+      <c r="J2">
+        <v>1152.56</v>
+      </c>
+      <c r="K2">
+        <v>1094.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4389.97</v>
+      </c>
+      <c r="C3">
+        <v>2401.5100000000002</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E14" si="0">C3/B3</f>
+        <v>0.54704474062465125</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="1">K3/B3</f>
+        <v>0.9667195903388861</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="2">J3/B3</f>
+        <v>1.0094624792424549</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="3">I3/B3</f>
+        <v>0.51714704200712081</v>
+      </c>
+      <c r="I3">
+        <v>2270.2600000000002</v>
+      </c>
+      <c r="J3">
+        <v>4431.51</v>
+      </c>
+      <c r="K3">
+        <v>4243.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>17418.7</v>
+      </c>
+      <c r="C4">
+        <v>8488.24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.48730617095420437</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.54821255317561013</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1.0057237336885072</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.6866356272282087</v>
+      </c>
+      <c r="I4">
+        <v>11960.3</v>
+      </c>
+      <c r="J4">
+        <v>17518.400000000001</v>
+      </c>
+      <c r="K4">
+        <v>9549.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>71626.8</v>
+      </c>
+      <c r="C5">
+        <v>32155.4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.44892973021271371</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.48302171812785161</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1.0090287434312295</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.75703786850731847</v>
+      </c>
+      <c r="I5">
+        <v>54224.2</v>
+      </c>
+      <c r="J5">
+        <v>72273.5</v>
+      </c>
+      <c r="K5">
+        <v>34597.300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>341690</v>
+      </c>
+      <c r="C6">
+        <v>125718</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.36792999502473001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.38691796657789224</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.94298047938189589</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.68996751441364979</v>
+      </c>
+      <c r="I6">
+        <v>235755</v>
+      </c>
+      <c r="J6">
+        <v>322207</v>
+      </c>
+      <c r="K6">
+        <v>132206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1670000</v>
+      </c>
+      <c r="C7">
+        <v>494099</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.29586766467065867</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.30824071856287427</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.92814371257485029</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.6347305389221557</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1060000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1550000</v>
+      </c>
+      <c r="K7">
+        <v>514762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7050000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1972020</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.27971914893617023</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.28874751773049645</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.96453900709219853</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.66241134751773045</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4670000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6800000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2035670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29400000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7850000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.26700680272108845</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.27548469387755103</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.65986394557823125</v>
+      </c>
+      <c r="I9" s="1">
+        <v>19400000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>28800000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8099250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>119000000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>31400000</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.2638655462184874</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.26941932773109245</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.98319327731092432</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.65966386554621848</v>
+      </c>
+      <c r="I10" s="1">
+        <v>78500000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>117000000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>32060900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>478000000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>125000000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.2615062761506276</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.26955230125523011</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.99163179916317989</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.66317991631799167</v>
+      </c>
+      <c r="I11" s="1">
+        <v>317000000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>474000000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>128846000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1910000000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>501000000</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.26230366492146595</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.26854712041884815</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.98952879581151831</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.65968586387434558</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1260000000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1890000000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>512925000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7600000000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.26938157894736842</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.0026315789473683</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.68684210526315792</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5220000000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7620000000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2047300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30300000000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8000000000</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.264026402640264</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.27102244224422445</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0.67656765676567654</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20500000000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>30300000000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8211980000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>32000000000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>32798800000</v>
       </c>
     </row>
   </sheetData>
